--- a/output/fit_clients/fit_round_203.xlsx
+++ b/output/fit_clients/fit_round_203.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1980962241.078927</v>
+        <v>1672760605.217956</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1035320222860687</v>
+        <v>0.09780669571083611</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03929556117134551</v>
+        <v>0.02828690631029899</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>990481113.6039189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2088716185.83638</v>
+        <v>2611219120.787156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1133670481826246</v>
+        <v>0.1191585844566859</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0321718540427032</v>
+        <v>0.04371192714577225</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1044358146.696116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3228714318.319481</v>
+        <v>4109987486.195109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1529893976327234</v>
+        <v>0.1127983066738769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0367751437281641</v>
+        <v>0.0292795114782875</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>73</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1614357118.676708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2590839501.691048</v>
+        <v>4141504418.834263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07704116803990714</v>
+        <v>0.08999297830147582</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04989080880723458</v>
+        <v>0.03586976930675259</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1295419847.768277</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2762614013.334841</v>
+        <v>1831805267.405513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1464663115227111</v>
+        <v>0.1036311984370907</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05285801620454702</v>
+        <v>0.0550909797960509</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1381306953.709113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2847314126.476865</v>
+        <v>2428468660.815797</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08115111408152859</v>
+        <v>0.08989625672150081</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04527794830011381</v>
+        <v>0.04418890981182268</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>62</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1423657042.784365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3493781341.598994</v>
+        <v>2841931589.089518</v>
       </c>
       <c r="F8" t="n">
-        <v>0.170686600238011</v>
+        <v>0.1580214896281083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02858923070602007</v>
+        <v>0.02085594843902304</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>65</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1746890778.772564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2232961803.614404</v>
+        <v>1452465982.375035</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1451860226983138</v>
+        <v>0.1288002509439001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03259486354438772</v>
+        <v>0.02587181448178463</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1116480896.075328</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5619741177.520922</v>
+        <v>4522763755.351738</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1424211167562419</v>
+        <v>0.1571063311458657</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03412171037799822</v>
+        <v>0.04847059354297829</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>86</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2809870736.029556</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3501442781.062228</v>
+        <v>2990659082.479548</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1721108405488436</v>
+        <v>0.116123955458862</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04115486015658566</v>
+        <v>0.03340901065076163</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>84</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1750721368.394656</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2120227417.194457</v>
+        <v>3153771019.389528</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1829587060223072</v>
+        <v>0.161252375911451</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05086811930978733</v>
+        <v>0.05238832687833385</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>72</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1060113646.033781</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5160321679.161999</v>
+        <v>4544102933.795441</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1007093882612974</v>
+        <v>0.06321229670818368</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02077527076439609</v>
+        <v>0.02165850389945278</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>68</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2580160835.557002</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3598817312.754974</v>
+        <v>3217611923.876522</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1290279564887241</v>
+        <v>0.1682520153933222</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04176060335929432</v>
+        <v>0.04059983633245077</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1799408647.438727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1608196563.446446</v>
+        <v>1824053190.46094</v>
       </c>
       <c r="F15" t="n">
-        <v>0.089079349837604</v>
+        <v>0.1092882615154932</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03025040375922615</v>
+        <v>0.03122540445498937</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>804098391.7324464</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2377540148.879925</v>
+        <v>2886731333.178715</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1035621588366877</v>
+        <v>0.1073022300926581</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04396698882589246</v>
+        <v>0.03516284725700699</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>31</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1188770116.18254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4474520230.875823</v>
+        <v>5297757914.916678</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1659944141342205</v>
+        <v>0.1274981081060035</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05088504170540448</v>
+        <v>0.04765724477820151</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>59</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2237260126.55555</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3942915207.413033</v>
+        <v>3356209250.583552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1662373610507019</v>
+        <v>0.1407102099859644</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03215807708658652</v>
+        <v>0.03064443396374353</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>67</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1971457565.643738</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1024457608.309896</v>
+        <v>1214333836.635127</v>
       </c>
       <c r="F19" t="n">
-        <v>0.182838085145433</v>
+        <v>0.1395436443527624</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02663919570279094</v>
+        <v>0.02466992996354345</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>512228839.3329664</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2023980033.475725</v>
+        <v>1822503595.712227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1299573713005934</v>
+        <v>0.1531405406252062</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02320783469676412</v>
+        <v>0.02750390231672493</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1011990040.515301</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1680867272.189708</v>
+        <v>2089144142.90113</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07855680098173329</v>
+        <v>0.06771478507213152</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0377184904824457</v>
+        <v>0.03647841645753681</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>840433702.5266839</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3787971580.166833</v>
+        <v>2947591564.796268</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09524076883831466</v>
+        <v>0.09905459113986556</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0390268487442549</v>
+        <v>0.03798172180099855</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1893985804.408721</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1293311618.548191</v>
+        <v>1025990606.146515</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1497170164487494</v>
+        <v>0.1581377529853628</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04195785335743716</v>
+        <v>0.03314363117185563</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>646655830.0163975</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4124829457.816785</v>
+        <v>3737238966.682209</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1426098866200717</v>
+        <v>0.101033403888006</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03261801303239326</v>
+        <v>0.03183161985708079</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>59</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2062414688.46021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>982758509.6792829</v>
+        <v>917935374.0604317</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08258295854059231</v>
+        <v>0.1201649655949344</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02887328371466852</v>
+        <v>0.02732795834641234</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>491379322.7755277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1199579285.633842</v>
+        <v>915439468.918439</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1150257739090493</v>
+        <v>0.09653427004256755</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02965895609501288</v>
+        <v>0.02672368473609864</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>599789663.7799283</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3834691143.748734</v>
+        <v>4445999654.365284</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1453782468400071</v>
+        <v>0.154747099006675</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02163245781778939</v>
+        <v>0.02534478334373515</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1917345590.203419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2805233492.945624</v>
+        <v>3297025991.637334</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1017283291447938</v>
+        <v>0.1036985890596699</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03377244557672145</v>
+        <v>0.04779255816825152</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>66</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1402616740.795281</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3600244255.117286</v>
+        <v>4797614061.521966</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09729102089113333</v>
+        <v>0.09776164123207583</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04462775188664538</v>
+        <v>0.03612722601668351</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>92</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1800122172.087728</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2113350317.625519</v>
+        <v>2182420493.915245</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08809710326429432</v>
+        <v>0.1274435636770149</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02715583242398628</v>
+        <v>0.03331936437378747</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1056675209.191158</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1271768040.844403</v>
+        <v>1371319618.868364</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06916647700689835</v>
+        <v>0.06827112203324111</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03773737094204827</v>
+        <v>0.04942432356163054</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>635883954.9645911</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1408533015.277145</v>
+        <v>1796045418.69972</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08794338494797141</v>
+        <v>0.09080825331578415</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02618025814974737</v>
+        <v>0.03006496015272721</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>704266556.9983646</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2400876943.690054</v>
+        <v>3043238177.619771</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1581440215749806</v>
+        <v>0.1706273937471844</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05270375549910111</v>
+        <v>0.04579724900624227</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>61</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1200438518.494434</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1518686672.072747</v>
+        <v>1076558539.372138</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08782957166628683</v>
+        <v>0.09387490427909098</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02491819659744089</v>
+        <v>0.02378800997569762</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>759343288.8493395</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>950001472.6813139</v>
+        <v>1232373179.011128</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1133021059470822</v>
+        <v>0.07878388897286079</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03129298032273585</v>
+        <v>0.02972528232237551</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>475000765.8674499</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2234258095.98057</v>
+        <v>2760715475.50199</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1237940017239511</v>
+        <v>0.1350375377829216</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02320404516317418</v>
+        <v>0.01764696475581689</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>51</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1117129091.236901</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1876928273.916095</v>
+        <v>1893876978.187353</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09835055182348665</v>
+        <v>0.1066008445575828</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03714210263148993</v>
+        <v>0.03448643572354583</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>54</v>
-      </c>
-      <c r="J37" t="n">
-        <v>938464147.2983937</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1895567027.308737</v>
+        <v>2008532106.296117</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09460174022347105</v>
+        <v>0.1056411341297001</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03433791809125376</v>
+        <v>0.02410400385770781</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>947783507.0130807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1853377464.76454</v>
+        <v>1764522599.788949</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1705188426442526</v>
+        <v>0.1221404203116511</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02805241806246734</v>
+        <v>0.02651056503928391</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>926688749.1827598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1725485152.040676</v>
+        <v>1403761673.773351</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1392941183138051</v>
+        <v>0.1099273857812891</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04207909534184569</v>
+        <v>0.04307889218521484</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>862742485.7342677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1811802060.946145</v>
+        <v>2745606270.658666</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1363943646049973</v>
+        <v>0.1032300195877194</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04167554541087391</v>
+        <v>0.03366992110861264</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>51</v>
-      </c>
-      <c r="J41" t="n">
-        <v>905901123.140942</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2669545101.142372</v>
+        <v>2630453519.445338</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08553277278667713</v>
+        <v>0.08095085282879648</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03207985575090639</v>
+        <v>0.04150586239917776</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1334772488.259936</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2144344937.284324</v>
+        <v>2688281353.209118</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1379519327633654</v>
+        <v>0.1567214527391048</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0229417221509511</v>
+        <v>0.02190517374816061</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>69</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1072172553.062064</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2196128481.655718</v>
+        <v>1613710409.540025</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08337887219853918</v>
+        <v>0.1006829484124022</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03441558491790336</v>
+        <v>0.03320885556440692</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1098064386.284505</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2178557615.498559</v>
+        <v>2116455278.132564</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1769904426892364</v>
+        <v>0.1771625811749994</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04763137757632081</v>
+        <v>0.05388162917752426</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1089278816.619491</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4740585583.309253</v>
+        <v>4196421029.339691</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1543157394043304</v>
+        <v>0.1428780627583407</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0600476677445685</v>
+        <v>0.04551921577974281</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>72</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2370292803.579922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4282475271.674431</v>
+        <v>4711581070.908046</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1311975000072848</v>
+        <v>0.149863240901478</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05753357358678517</v>
+        <v>0.04013586248588097</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>54</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2141237650.940215</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2874067859.260331</v>
+        <v>3947683810.118813</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06653516105210373</v>
+        <v>0.1066161580670742</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02816719326304623</v>
+        <v>0.03793338203108622</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>67</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1437034029.442425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1635799173.162995</v>
+        <v>1680311592.335214</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1191505922376643</v>
+        <v>0.1200560193477767</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02862892395164898</v>
+        <v>0.03794732663835749</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>817899597.4711325</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2776819437.227781</v>
+        <v>3418490171.75685</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1769102915592543</v>
+        <v>0.1511590655480365</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03909131948792399</v>
+        <v>0.04885894306057823</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>69</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1388409794.322608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1168593926.190184</v>
+        <v>1167865299.161103</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1884766995821635</v>
+        <v>0.1768550567030889</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04202490006345789</v>
+        <v>0.04924962053320952</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>584297019.72211</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3792350303.814847</v>
+        <v>5270132884.325618</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1182921494840619</v>
+        <v>0.08989159185027498</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05872983977568912</v>
+        <v>0.06164157102369489</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>84</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1896175220.586685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3386131166.143304</v>
+        <v>2294213072.257492</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1789568499120998</v>
+        <v>0.1655205900456182</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0352800665702713</v>
+        <v>0.03412288360607976</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>59</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1693065588.848052</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4591414370.80308</v>
+        <v>4057911857.32696</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1082050499243462</v>
+        <v>0.1286643461386671</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05300357005453064</v>
+        <v>0.03986540630714588</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>66</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2295707295.909324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3979964834.123173</v>
+        <v>3050889766.303044</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1679120333554066</v>
+        <v>0.1894912728685868</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02958067969671607</v>
+        <v>0.03257126086706954</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>56</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1989982391.068066</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1265413798.580554</v>
+        <v>1634489619.813239</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1601246624021558</v>
+        <v>0.1539854639958704</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0388095407849071</v>
+        <v>0.04305737516540887</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>632706976.2849884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4584816052.273621</v>
+        <v>4413548021.153804</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1842695764394034</v>
+        <v>0.1823056069187278</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02075669016712862</v>
+        <v>0.02409433770446939</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>66</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2292408163.595779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1379708869.405126</v>
+        <v>1698687605.910275</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1934986458349787</v>
+        <v>0.1945274544525059</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03294552806881153</v>
+        <v>0.02429119242156217</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>689854476.8047315</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3775957098.998226</v>
+        <v>5372018949.167475</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1089127565344634</v>
+        <v>0.1144055887746668</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03671281773036904</v>
+        <v>0.03381482203821319</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1887978536.229848</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3141384489.706986</v>
+        <v>3629930350.041102</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1540316308169186</v>
+        <v>0.173427182963548</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03281687731371629</v>
+        <v>0.02083519159441523</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>63</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1570692330.01555</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3330887779.122449</v>
+        <v>2828711352.013412</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1398358172819192</v>
+        <v>0.1243366463691719</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03300541152179862</v>
+        <v>0.03057267591339861</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>72</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1665443838.811774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2088505502.783993</v>
+        <v>1486678045.693712</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1342575506186398</v>
+        <v>0.1824973988029013</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04270202007125606</v>
+        <v>0.04418717810229497</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1044252822.736456</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5524321594.856745</v>
+        <v>5572198118.207243</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09171325499026681</v>
+        <v>0.08588957328454448</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04583818363688287</v>
+        <v>0.03247348811000382</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>58</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2762160791.761472</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3699990770.214234</v>
+        <v>5172410600.481999</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1227711648228548</v>
+        <v>0.1814846237919383</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02589758294786336</v>
+        <v>0.02438105869983434</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>63</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1849995399.83956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4979089433.552615</v>
+        <v>4451929742.766687</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1463782106326503</v>
+        <v>0.1436404183056275</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02118457976801531</v>
+        <v>0.02509297743506346</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>73</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2489544676.920077</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5317557689.203082</v>
+        <v>3956528499.602177</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1149535323519432</v>
+        <v>0.101105737722866</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03506367254463051</v>
+        <v>0.04270529879908797</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>59</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2658778888.793864</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3314369261.399702</v>
+        <v>3403059326.674609</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09722036234348021</v>
+        <v>0.08099460675154234</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0458626776437687</v>
+        <v>0.03848444369390267</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1657184622.354421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5640726732.594634</v>
+        <v>4210893759.841457</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1111309007935158</v>
+        <v>0.1523992367622256</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04872809677235946</v>
+        <v>0.04538303920995546</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2820363461.491063</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2011030935.298851</v>
+        <v>2403563319.209928</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1214707024173307</v>
+        <v>0.1245514534777485</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05204196407412363</v>
+        <v>0.04764237993265136</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1005515474.04225</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2528384037.405111</v>
+        <v>2641305906.034909</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08513540751572543</v>
+        <v>0.09499681459584546</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04981549038467095</v>
+        <v>0.04361284922552948</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>58</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1264191965.045439</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4801385176.504281</v>
+        <v>4043530870.649395</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1852879077548448</v>
+        <v>0.115122523803994</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02879453626024127</v>
+        <v>0.02773815768172198</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>74</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2400692679.113295</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1465372021.05014</v>
+        <v>1435976301.119722</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1041471750420922</v>
+        <v>0.1000870275151135</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0494541832073568</v>
+        <v>0.0341527189444301</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>732686043.0459518</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2702662425.881598</v>
+        <v>3338865350.440292</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0732898145971522</v>
+        <v>0.1121676511144918</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03966981644462821</v>
+        <v>0.0407510124647971</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>78</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1351331236.115643</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3961262636.211694</v>
+        <v>3793517221.502427</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1387900734130643</v>
+        <v>0.1213601742322481</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02831925886550649</v>
+        <v>0.02524409165023195</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>69</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1980631300.378188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1506540478.599076</v>
+        <v>1704541084.331904</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1359500942257001</v>
+        <v>0.1601896840224911</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03741323841434845</v>
+        <v>0.03798963613634719</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>753270249.6804843</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5141484606.078448</v>
+        <v>3530723553.993108</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07767051945457699</v>
+        <v>0.1241911733011795</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02496410363452271</v>
+        <v>0.03152152431547609</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2570742335.566039</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1517765735.556632</v>
+        <v>1592729220.009423</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1406950936182005</v>
+        <v>0.1167718160783065</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02121274696468152</v>
+        <v>0.03060518233208424</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>758882858.0466473</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3657929399.609287</v>
+        <v>3639747475.129236</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1339472778639941</v>
+        <v>0.1233865158983599</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04391553803172029</v>
+        <v>0.05526258892549014</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>71</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1828964689.967376</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1784998414.603689</v>
+        <v>1885859212.008397</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1095764803408853</v>
+        <v>0.1117152675031556</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03186487837038358</v>
+        <v>0.03164491586526758</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>892499291.3525558</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4871910335.880509</v>
+        <v>5295696329.592485</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1005225487481843</v>
+        <v>0.07893110768621063</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02628608997897026</v>
+        <v>0.03556427986774188</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>42</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2435955210.757408</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5181857366.824414</v>
+        <v>5099874150.704823</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1009648938106396</v>
+        <v>0.09858628716028787</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02409684377656734</v>
+        <v>0.0291631593450052</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2590928690.492007</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3828793937.735329</v>
+        <v>3679415138.562954</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1756494040759957</v>
+        <v>0.1919913451125947</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02795632908386191</v>
+        <v>0.02188511586906409</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>75</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1914397018.176985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1933315089.671318</v>
+        <v>2004138716.944687</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242957363825312</v>
+        <v>0.1225988272728941</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04136622741095686</v>
+        <v>0.04513777291923385</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>966657521.8275564</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2299098326.778767</v>
+        <v>2037395419.91935</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07626891758557833</v>
+        <v>0.07482012375932154</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04740026501318896</v>
+        <v>0.03523874706100093</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1149549124.550343</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3188864552.339493</v>
+        <v>2706359935.075671</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1198852192945036</v>
+        <v>0.1255916103682985</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05053530667924418</v>
+        <v>0.03969225243209563</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>77</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1594432357.154139</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2436419805.92813</v>
+        <v>2512641104.083224</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112037908875617</v>
+        <v>0.1577648692462542</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02190251342896168</v>
+        <v>0.0262149616741643</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1218209991.257968</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1384781638.92669</v>
+        <v>1160248231.716128</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1399383855114318</v>
+        <v>0.180912612215216</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02767743606211352</v>
+        <v>0.03982700867441359</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>692390922.3999839</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3605176434.409749</v>
+        <v>2398624204.768976</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1116322552626006</v>
+        <v>0.1327133211940617</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03462322180564423</v>
+        <v>0.03297280756771741</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>80</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1802588307.442455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2795289657.55612</v>
+        <v>2738416169.66534</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1538687350331644</v>
+        <v>0.1337259596799903</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04064310338229824</v>
+        <v>0.03501645849448067</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1397644881.867952</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1817732932.325216</v>
+        <v>1330356261.789694</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1009990136347138</v>
+        <v>0.1249178956201646</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04655359589004129</v>
+        <v>0.04236429661660054</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>908866503.0123323</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1557296825.632697</v>
+        <v>1425055060.738622</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1875272455281055</v>
+        <v>0.1523225189225154</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05750237839478214</v>
+        <v>0.06074753134832248</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>778648444.0656607</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2896404635.275041</v>
+        <v>1993650009.849452</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09815211785947016</v>
+        <v>0.103056430218724</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04549341567072</v>
+        <v>0.03238000494648645</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>49</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1448202331.551447</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4529264346.659546</v>
+        <v>4834837438.733164</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08960405855332823</v>
+        <v>0.1309386676656271</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04584050752734464</v>
+        <v>0.03663414310070168</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2264632139.708102</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2259888851.648828</v>
+        <v>1528287168.969147</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1430450960664865</v>
+        <v>0.14989670731005</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03751413462098106</v>
+        <v>0.03250291228603919</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1129944457.959502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1974747869.059208</v>
+        <v>2686861619.055082</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1204365222295839</v>
+        <v>0.1355935327872775</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04624910871213964</v>
+        <v>0.04748415278668442</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>48</v>
-      </c>
-      <c r="J95" t="n">
-        <v>987374008.8380181</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1677896050.574568</v>
+        <v>2197395457.380271</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08961704595417973</v>
+        <v>0.09360478738927211</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03039191431718253</v>
+        <v>0.02982578675625215</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>838948046.6347921</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5129147907.224753</v>
+        <v>5094177203.714385</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1130687857819203</v>
+        <v>0.170535973742287</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02244956726069183</v>
+        <v>0.0234820997212291</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2564574100.782408</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3239893406.119092</v>
+        <v>2641319194.958056</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1189580774469324</v>
+        <v>0.08308524407801779</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03262764515136331</v>
+        <v>0.02952168724751652</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>54</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1619946704.026278</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2332847658.092077</v>
+        <v>2272842673.820969</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1220630685802643</v>
+        <v>0.1423387404429748</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03426217490070661</v>
+        <v>0.02577295753455519</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1166423766.681509</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3545642251.246436</v>
+        <v>4779335929.531083</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1644544268906264</v>
+        <v>0.1783065032967169</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02746320275760567</v>
+        <v>0.02721754963144724</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>63</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1772821160.011785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3587300378.724961</v>
+        <v>2638080639.535181</v>
       </c>
       <c r="F101" t="n">
-        <v>0.206534470225444</v>
+        <v>0.1602307968226709</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04257217698806656</v>
+        <v>0.05221864908062143</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>82</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1793650355.99793</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_203.xlsx
+++ b/output/fit_clients/fit_round_203.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1672760605.217956</v>
+        <v>1862682954.881039</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09780669571083611</v>
+        <v>0.08950335335045406</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02828690631029899</v>
+        <v>0.04542958044702271</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2611219120.787156</v>
+        <v>2534279112.993643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1191585844566859</v>
+        <v>0.1505552494229414</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04371192714577225</v>
+        <v>0.0306674556456264</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4109987486.195109</v>
+        <v>5148378788.543538</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1127983066738769</v>
+        <v>0.1624674709000129</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0292795114782875</v>
+        <v>0.02471183370695445</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4141504418.834263</v>
+        <v>3783973581.253739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08999297830147582</v>
+        <v>0.09771455512815705</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03586976930675259</v>
+        <v>0.04079865607211667</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1831805267.405513</v>
+        <v>2102315721.417329</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1036311984370907</v>
+        <v>0.09346599203061229</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0550909797960509</v>
+        <v>0.04719419463064999</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2428468660.815797</v>
+        <v>2319842759.712073</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08989625672150081</v>
+        <v>0.0789112554342884</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04418890981182268</v>
+        <v>0.03214848567399042</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2841931589.089518</v>
+        <v>3261346789.053739</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1580214896281083</v>
+        <v>0.1819786521838424</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02085594843902304</v>
+        <v>0.02625501861262372</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1452465982.375035</v>
+        <v>1738359789.72349</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1288002509439001</v>
+        <v>0.1621206884053729</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02587181448178463</v>
+        <v>0.02324162139943016</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4522763755.351738</v>
+        <v>5749781004.405511</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1571063311458657</v>
+        <v>0.1561234044780582</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04847059354297829</v>
+        <v>0.04246965304328996</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2990659082.479548</v>
+        <v>2958711337.61292</v>
       </c>
       <c r="F11" t="n">
-        <v>0.116123955458862</v>
+        <v>0.1157285870785484</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03340901065076163</v>
+        <v>0.04472638623061272</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3153771019.389528</v>
+        <v>2927693902.016045</v>
       </c>
       <c r="F12" t="n">
-        <v>0.161252375911451</v>
+        <v>0.1950579303673605</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05238832687833385</v>
+        <v>0.04949609074946008</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4544102933.795441</v>
+        <v>4454111941.740416</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06321229670818368</v>
+        <v>0.06626201296096548</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02165850389945278</v>
+        <v>0.02576946295273973</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3217611923.876522</v>
+        <v>3816164022.237815</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1682520153933222</v>
+        <v>0.1863194889251533</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04059983633245077</v>
+        <v>0.02816379557896298</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1824053190.46094</v>
+        <v>1776170405.25771</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1092882615154932</v>
+        <v>0.0767019136341506</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03122540445498937</v>
+        <v>0.03377312432237736</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2886731333.178715</v>
+        <v>2873442727.870064</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1073022300926581</v>
+        <v>0.09116575708638744</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03516284725700699</v>
+        <v>0.04543831539754228</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5297757914.916678</v>
+        <v>4307409692.294529</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1274981081060035</v>
+        <v>0.1232718117658803</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04765724477820151</v>
+        <v>0.05052891609607588</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3356209250.583552</v>
+        <v>2594924221.548751</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1407102099859644</v>
+        <v>0.151354970186809</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03064443396374353</v>
+        <v>0.0323326599844319</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1214333836.635127</v>
+        <v>1199010286.428474</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1395436443527624</v>
+        <v>0.1866077035775985</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02466992996354345</v>
+        <v>0.02356955064319926</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1822503595.712227</v>
+        <v>2535391185.526733</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1531405406252062</v>
+        <v>0.152144200744196</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02750390231672493</v>
+        <v>0.02901454478969668</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2089144142.90113</v>
+        <v>2525610876.110751</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06771478507213152</v>
+        <v>0.06879946809296199</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03647841645753681</v>
+        <v>0.03941493182239608</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2947591564.796268</v>
+        <v>3154401200.056039</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09905459113986556</v>
+        <v>0.1264220973785302</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03798172180099855</v>
+        <v>0.04302084922076778</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1025990606.146515</v>
+        <v>1129237240.870177</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1581377529853628</v>
+        <v>0.1349208607274357</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03314363117185563</v>
+        <v>0.03652969448402317</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3737238966.682209</v>
+        <v>3733218295.675286</v>
       </c>
       <c r="F24" t="n">
-        <v>0.101033403888006</v>
+        <v>0.1281859421158019</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03183161985708079</v>
+        <v>0.03033112026818999</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>917935374.0604317</v>
+        <v>1314535453.613459</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1201649655949344</v>
+        <v>0.09588150050521066</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02732795834641234</v>
+        <v>0.01906183314330317</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>915439468.918439</v>
+        <v>929357766.0534884</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09653427004256755</v>
+        <v>0.08621890372479935</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02672368473609864</v>
+        <v>0.03637338160918117</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4445999654.365284</v>
+        <v>4260481451.126893</v>
       </c>
       <c r="F27" t="n">
-        <v>0.154747099006675</v>
+        <v>0.1452989877912652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02534478334373515</v>
+        <v>0.02150271817558879</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3297025991.637334</v>
+        <v>2405586728.84321</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1036985890596699</v>
+        <v>0.1419342619535908</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04779255816825152</v>
+        <v>0.04573071587690898</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4797614061.521966</v>
+        <v>5684916719.82762</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09776164123207583</v>
+        <v>0.1230940994262586</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03612722601668351</v>
+        <v>0.03819481467757401</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2182420493.915245</v>
+        <v>1679681495.107496</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1274435636770149</v>
+        <v>0.09806217726867572</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03331936437378747</v>
+        <v>0.03427045594961637</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1371319618.868364</v>
+        <v>1051194218.598157</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06827112203324111</v>
+        <v>0.07032481486316454</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04942432356163054</v>
+        <v>0.05174418324410989</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1796045418.69972</v>
+        <v>1642367909.764608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09080825331578415</v>
+        <v>0.1188235296615383</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03006496015272721</v>
+        <v>0.02573624733084226</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3043238177.619771</v>
+        <v>2246837527.611497</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1706273937471844</v>
+        <v>0.1547110418535876</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04579724900624227</v>
+        <v>0.05492263780070985</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1076558539.372138</v>
+        <v>1536558704.864654</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09387490427909098</v>
+        <v>0.08905966743014909</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02378800997569762</v>
+        <v>0.0171633177121285</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1232373179.011128</v>
+        <v>910874253.9871027</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07878388897286079</v>
+        <v>0.09544014986302092</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02972528232237551</v>
+        <v>0.03625598288247966</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2760715475.50199</v>
+        <v>3042703156.23372</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1350375377829216</v>
+        <v>0.1720792763605802</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01764696475581689</v>
+        <v>0.02343851902180328</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1893876978.187353</v>
+        <v>2760908733.998675</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1066008445575828</v>
+        <v>0.07300591617713677</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03448643572354583</v>
+        <v>0.03757108283510654</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2008532106.296117</v>
+        <v>2148217800.445173</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1056411341297001</v>
+        <v>0.103319662869659</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02410400385770781</v>
+        <v>0.0308827223818504</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1764522599.788949</v>
+        <v>1904547967.639634</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1221404203116511</v>
+        <v>0.1906453612390986</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02651056503928391</v>
+        <v>0.02192944478245501</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1403761673.773351</v>
+        <v>1432089554.8429</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1099273857812891</v>
+        <v>0.1199599305711787</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04307889218521484</v>
+        <v>0.04341104284647582</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2745606270.658666</v>
+        <v>1812669799.272486</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1032300195877194</v>
+        <v>0.100795990508186</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03366992110861264</v>
+        <v>0.04723190473496135</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2630453519.445338</v>
+        <v>2628347730.596931</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08095085282879648</v>
+        <v>0.1226703687683038</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04150586239917776</v>
+        <v>0.03571508149524365</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2688281353.209118</v>
+        <v>2673205735.774521</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1567214527391048</v>
+        <v>0.1631497239326338</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02190517374816061</v>
+        <v>0.0227664762864574</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1613710409.540025</v>
+        <v>2106489962.030122</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1006829484124022</v>
+        <v>0.07385909405674586</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03320885556440692</v>
+        <v>0.02240899830220673</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2116455278.132564</v>
+        <v>1655542585.762641</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1771625811749994</v>
+        <v>0.142114043477657</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05388162917752426</v>
+        <v>0.05498979110174261</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4196421029.339691</v>
+        <v>5724635697.211808</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1428780627583407</v>
+        <v>0.1320036393107794</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04551921577974281</v>
+        <v>0.03938172459564529</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4711581070.908046</v>
+        <v>3672022992.537368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.149863240901478</v>
+        <v>0.1309856339277333</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04013586248588097</v>
+        <v>0.04907555639938995</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3947683810.118813</v>
+        <v>3988312551.893535</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1066161580670742</v>
+        <v>0.09960840978917712</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03793338203108622</v>
+        <v>0.02881427038103145</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1680311592.335214</v>
+        <v>1783665298.487844</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1200560193477767</v>
+        <v>0.1801639526755345</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03794732663835749</v>
+        <v>0.04387296471682724</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3418490171.75685</v>
+        <v>3952425853.891855</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1511590655480365</v>
+        <v>0.1711694575692407</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04885894306057823</v>
+        <v>0.03343654415965817</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1167865299.161103</v>
+        <v>1020103405.337836</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1768550567030889</v>
+        <v>0.1405916628095754</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04924962053320952</v>
+        <v>0.0496218939276397</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5270132884.325618</v>
+        <v>4922492487.050264</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08989159185027498</v>
+        <v>0.08894138500408066</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06164157102369489</v>
+        <v>0.05398735008625714</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2294213072.257492</v>
+        <v>2767955912.780743</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1655205900456182</v>
+        <v>0.1859000738494083</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03412288360607976</v>
+        <v>0.03085858604618266</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4057911857.32696</v>
+        <v>3027846779.901077</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1286643461386671</v>
+        <v>0.1020328595896177</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03986540630714588</v>
+        <v>0.03645497452421324</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3050889766.303044</v>
+        <v>4194396255.16818</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1894912728685868</v>
+        <v>0.140500777097207</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03257126086706954</v>
+        <v>0.03233326667352837</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1634489619.813239</v>
+        <v>1825660178.97981</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1539854639958704</v>
+        <v>0.116306905848085</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04305737516540887</v>
+        <v>0.04446246574851817</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4413548021.153804</v>
+        <v>3306563209.143237</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1823056069187278</v>
+        <v>0.1393689367471637</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02409433770446939</v>
+        <v>0.0208170996635533</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1698687605.910275</v>
+        <v>1908254726.770168</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1945274544525059</v>
+        <v>0.1501778995274547</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02429119242156217</v>
+        <v>0.03831920390104192</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5372018949.167475</v>
+        <v>4014301038.606866</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1144055887746668</v>
+        <v>0.08745758665681805</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03381482203821319</v>
+        <v>0.03819979753730262</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3629930350.041102</v>
+        <v>2690416877.252541</v>
       </c>
       <c r="F60" t="n">
-        <v>0.173427182963548</v>
+        <v>0.1570757963339657</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02083519159441523</v>
+        <v>0.02885324636173429</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2828711352.013412</v>
+        <v>2850757565.397801</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1243366463691719</v>
+        <v>0.1447234526737764</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03057267591339861</v>
+        <v>0.02163429804325505</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1486678045.693712</v>
+        <v>2050333995.744853</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1824973988029013</v>
+        <v>0.1575080791293801</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04418717810229497</v>
+        <v>0.03513509356600078</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5572198118.207243</v>
+        <v>4162794486.575129</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08588957328454448</v>
+        <v>0.09272036334399179</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03247348811000382</v>
+        <v>0.04022846232517636</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5172410600.481999</v>
+        <v>3549379173.357343</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1814846237919383</v>
+        <v>0.123724487318031</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02438105869983434</v>
+        <v>0.03473991964646569</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4451929742.766687</v>
+        <v>5656068311.202717</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1436404183056275</v>
+        <v>0.1169400992590068</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02509297743506346</v>
+        <v>0.02093118465523148</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3956528499.602177</v>
+        <v>4742959952.604188</v>
       </c>
       <c r="F66" t="n">
-        <v>0.101105737722866</v>
+        <v>0.1148284168946152</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04270529879908797</v>
+        <v>0.03788040125592451</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3403059326.674609</v>
+        <v>3406851067.783659</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08099460675154234</v>
+        <v>0.06954373620833203</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03848444369390267</v>
+        <v>0.03163717347242543</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4210893759.841457</v>
+        <v>5180454286.543652</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1523992367622256</v>
+        <v>0.1012331690605596</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04538303920995546</v>
+        <v>0.03959750743585616</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2403563319.209928</v>
+        <v>2247600986.402221</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1245514534777485</v>
+        <v>0.1329571080224157</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04764237993265136</v>
+        <v>0.05052911011825127</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2641305906.034909</v>
+        <v>2373340856.570659</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09499681459584546</v>
+        <v>0.09147701305466541</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04361284922552948</v>
+        <v>0.03356489925850561</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4043530870.649395</v>
+        <v>4882912864.591999</v>
       </c>
       <c r="F71" t="n">
-        <v>0.115122523803994</v>
+        <v>0.1708956744065765</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02773815768172198</v>
+        <v>0.02057695013000461</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1435976301.119722</v>
+        <v>1796582470.336445</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1000870275151135</v>
+        <v>0.104697544632283</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0341527189444301</v>
+        <v>0.04651671652557574</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3338865350.440292</v>
+        <v>2541442028.497124</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1121676511144918</v>
+        <v>0.08958943053209896</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0407510124647971</v>
+        <v>0.03487575399971266</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3793517221.502427</v>
+        <v>2806204844.70986</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1213601742322481</v>
+        <v>0.1375711272034208</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02524409165023195</v>
+        <v>0.02557130537093045</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1704541084.331904</v>
+        <v>2116505006.310151</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1601896840224911</v>
+        <v>0.1012814073949097</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03798963613634719</v>
+        <v>0.0285755296441452</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3530723553.993108</v>
+        <v>3482361682.167107</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1241911733011795</v>
+        <v>0.09646717470391858</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03152152431547609</v>
+        <v>0.0223919949638461</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1592729220.009423</v>
+        <v>1814522741.6961</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1167718160783065</v>
+        <v>0.1852178849032836</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03060518233208424</v>
+        <v>0.02460097060457201</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3639747475.129236</v>
+        <v>4519925032.700549</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1233865158983599</v>
+        <v>0.08771471604343402</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05526258892549014</v>
+        <v>0.04456964466635218</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1885859212.008397</v>
+        <v>1660190692.133226</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1117152675031556</v>
+        <v>0.1594548349303929</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03164491586526758</v>
+        <v>0.03866283050645315</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5295696329.592485</v>
+        <v>4042635480.319016</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07893110768621063</v>
+        <v>0.07647661439253595</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03556427986774188</v>
+        <v>0.02992676452489889</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5099874150.704823</v>
+        <v>4410749825.675025</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09858628716028787</v>
+        <v>0.08441437230974447</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0291631593450052</v>
+        <v>0.03209032528300423</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3679415138.562954</v>
+        <v>3904890930.043089</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1919913451125947</v>
+        <v>0.2039886606792172</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02188511586906409</v>
+        <v>0.02249327935961642</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2004138716.944687</v>
+        <v>2321431038.927148</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1225988272728941</v>
+        <v>0.1385776779599619</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04513777291923385</v>
+        <v>0.03606379786914868</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2037395419.91935</v>
+        <v>2546412287.52495</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07482012375932154</v>
+        <v>0.1007427558774271</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03523874706100093</v>
+        <v>0.0521195089430841</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2706359935.075671</v>
+        <v>2594234576.410157</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1255916103682985</v>
+        <v>0.1418600550037312</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03969225243209563</v>
+        <v>0.05063527261684671</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2512641104.083224</v>
+        <v>2289697675.195396</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1577648692462542</v>
+        <v>0.169446119709143</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0262149616741643</v>
+        <v>0.01894398060218989</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1160248231.716128</v>
+        <v>1362809298.029506</v>
       </c>
       <c r="F87" t="n">
-        <v>0.180912612215216</v>
+        <v>0.1682671755543251</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03982700867441359</v>
+        <v>0.03961037605562177</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2398624204.768976</v>
+        <v>2749491708.033565</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1327133211940617</v>
+        <v>0.1304207272400162</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03297280756771741</v>
+        <v>0.02609234619046099</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2738416169.66534</v>
+        <v>2642547234.629118</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1337259596799903</v>
+        <v>0.1019805581585896</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03501645849448067</v>
+        <v>0.03769960513567387</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1330356261.789694</v>
+        <v>1440852700.593287</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1249178956201646</v>
+        <v>0.08367308192328929</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04236429661660054</v>
+        <v>0.0483077497049338</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1425055060.738622</v>
+        <v>1310688887.932367</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1523225189225154</v>
+        <v>0.1616956155755822</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06074753134832248</v>
+        <v>0.03873154344772323</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1993650009.849452</v>
+        <v>2235734968.035503</v>
       </c>
       <c r="F92" t="n">
-        <v>0.103056430218724</v>
+        <v>0.07300726292489799</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03238000494648645</v>
+        <v>0.03313505027480163</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4834837438.733164</v>
+        <v>4180389373.842354</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1309386676656271</v>
+        <v>0.1177707294525809</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03663414310070168</v>
+        <v>0.04555636835034554</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1528287168.969147</v>
+        <v>1804933229.531543</v>
       </c>
       <c r="F94" t="n">
-        <v>0.14989670731005</v>
+        <v>0.1238677137134975</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03250291228603919</v>
+        <v>0.03475896110525502</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2686861619.055082</v>
+        <v>2539047901.026065</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1355935327872775</v>
+        <v>0.1273420164504153</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04748415278668442</v>
+        <v>0.03791572711418518</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2197395457.380271</v>
+        <v>2361400954.799315</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09360478738927211</v>
+        <v>0.1323668105381717</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02982578675625215</v>
+        <v>0.03403851765821153</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5094177203.714385</v>
+        <v>4777802081.376452</v>
       </c>
       <c r="F97" t="n">
-        <v>0.170535973742287</v>
+        <v>0.1430108173785866</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0234820997212291</v>
+        <v>0.02247558900258277</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2641319194.958056</v>
+        <v>2751390401.182292</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08308524407801779</v>
+        <v>0.09957253863906318</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02952168724751652</v>
+        <v>0.03210019612939619</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2272842673.820969</v>
+        <v>2585686452.932686</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1423387404429748</v>
+        <v>0.1125889831915523</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02577295753455519</v>
+        <v>0.02985185376758291</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4779335929.531083</v>
+        <v>3254311859.558701</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1783065032967169</v>
+        <v>0.1139006386232047</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02721754963144724</v>
+        <v>0.02446103731486852</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2638080639.535181</v>
+        <v>2527875211.541681</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1602307968226709</v>
+        <v>0.2204903212401176</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05221864908062143</v>
+        <v>0.04957226839091996</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_203.xlsx
+++ b/output/fit_clients/fit_round_203.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1862682954.881039</v>
+        <v>1864790658.943851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08950335335045406</v>
+        <v>0.09515122090618527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04542958044702271</v>
+        <v>0.04388633725264491</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2534279112.993643</v>
+        <v>2176823244.740437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1505552494229414</v>
+        <v>0.1613031180786253</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0306674556456264</v>
+        <v>0.04424725847259128</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5148378788.543538</v>
+        <v>4309615195.827292</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1624674709000129</v>
+        <v>0.1428640069736543</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02471183370695445</v>
+        <v>0.03149569142748123</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>111</v>
+      </c>
+      <c r="J4" t="n">
+        <v>203</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3783973581.253739</v>
+        <v>3846555222.686975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09771455512815705</v>
+        <v>0.08012353889479588</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04079865607211667</v>
+        <v>0.0321783064370822</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>84</v>
+      </c>
+      <c r="J5" t="n">
+        <v>203</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2102315721.417329</v>
+        <v>2224722547.966873</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09346599203061229</v>
+        <v>0.142380167169745</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04719419463064999</v>
+        <v>0.0538468894123133</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2319842759.712073</v>
+        <v>3001621304.262415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0789112554342884</v>
+        <v>0.09943914270876654</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03214848567399042</v>
+        <v>0.04593612120639083</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3261346789.053739</v>
+        <v>2763178532.453895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1819786521838424</v>
+        <v>0.21906216515844</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02625501861262372</v>
+        <v>0.02643649704223149</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>199</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1738359789.72349</v>
+        <v>1814945720.894543</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1621206884053729</v>
+        <v>0.1515844249916254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02324162139943016</v>
+        <v>0.0299320790513386</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5749781004.405511</v>
+        <v>3968426810.381843</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1561234044780582</v>
+        <v>0.193622105079265</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04246965304328996</v>
+        <v>0.03756277577000651</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>186</v>
+      </c>
+      <c r="J10" t="n">
+        <v>202</v>
+      </c>
+      <c r="K10" t="n">
+        <v>107.5762562752954</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2958711337.61292</v>
+        <v>4185474038.157991</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1157285870785484</v>
+        <v>0.1637623346668434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04472638623061272</v>
+        <v>0.03895777564954704</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>83</v>
+      </c>
+      <c r="J11" t="n">
+        <v>203</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2927693902.016045</v>
+        <v>2487342175.638423</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1950579303673605</v>
+        <v>0.1799850422224791</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04949609074946008</v>
+        <v>0.0449506876010942</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4454111941.740416</v>
+        <v>3599739279.205923</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06626201296096548</v>
+        <v>0.081633443769435</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02576946295273973</v>
+        <v>0.02538495176482692</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>101</v>
+      </c>
+      <c r="J13" t="n">
+        <v>201</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3816164022.237815</v>
+        <v>3449678999.848375</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1863194889251533</v>
+        <v>0.1167484482329787</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02816379557896298</v>
+        <v>0.03040887081575352</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>39</v>
+      </c>
+      <c r="J14" t="n">
+        <v>201</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1776170405.25771</v>
+        <v>1452673072.900152</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0767019136341506</v>
+        <v>0.08850738675678237</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03377312432237736</v>
+        <v>0.0480756780771961</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2873442727.870064</v>
+        <v>2636559418.610226</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09116575708638744</v>
+        <v>0.07553895890634327</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04543831539754228</v>
+        <v>0.04331157433011174</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1028,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4307409692.294529</v>
+        <v>3624410767.289613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1232718117658803</v>
+        <v>0.1114986397856898</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05052891609607588</v>
+        <v>0.0528413936553486</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>97</v>
+      </c>
+      <c r="J17" t="n">
+        <v>203</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2594924221.548751</v>
+        <v>2418242309.026448</v>
       </c>
       <c r="F18" t="n">
-        <v>0.151354970186809</v>
+        <v>0.1788907780490092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0323326599844319</v>
+        <v>0.02876058813919316</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>201</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1098,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1199010286.428474</v>
+        <v>1181683088.721953</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1866077035775985</v>
+        <v>0.1661704725361565</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02356955064319926</v>
+        <v>0.01760937123455377</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2535391185.526733</v>
+        <v>2721413586.509435</v>
       </c>
       <c r="F20" t="n">
-        <v>0.152144200744196</v>
+        <v>0.1576484895688013</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02901454478969668</v>
+        <v>0.02903674989921646</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2525610876.110751</v>
+        <v>1784172371.246228</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06879946809296199</v>
+        <v>0.07211400761747538</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03941493182239608</v>
+        <v>0.03630542932239329</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1203,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3154401200.056039</v>
+        <v>3941805974.587133</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1264220973785302</v>
+        <v>0.09415230402674317</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04302084922076778</v>
+        <v>0.0356169307335188</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>51</v>
+      </c>
+      <c r="J22" t="n">
+        <v>203</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1232,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1129237240.870177</v>
+        <v>1537535782.205133</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1349208607274357</v>
+        <v>0.1410929264072608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03652969448402317</v>
+        <v>0.04880572724399753</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1267,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3733218295.675286</v>
+        <v>3948644371.870336</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1281859421158019</v>
+        <v>0.1320656486692656</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03033112026818999</v>
+        <v>0.02316812144471742</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>63</v>
+      </c>
+      <c r="J24" t="n">
+        <v>203</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1308,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1314535453.613459</v>
+        <v>1076965700.273668</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09588150050521066</v>
+        <v>0.08503490325516537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01906183314330317</v>
+        <v>0.02113011156983104</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1337,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>929357766.0534884</v>
+        <v>1176330019.062134</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08621890372479935</v>
+        <v>0.08524785734576346</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03637338160918117</v>
+        <v>0.02969258531867501</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1372,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4260481451.126893</v>
+        <v>3244387433.211721</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1452989877912652</v>
+        <v>0.09737795551238665</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02150271817558879</v>
+        <v>0.02617319179416059</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>80</v>
+      </c>
+      <c r="J27" t="n">
+        <v>201</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1407,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2405586728.84321</v>
+        <v>3718473921.949662</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1419342619535908</v>
+        <v>0.1007060284354777</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04573071587690898</v>
+        <v>0.04949478043106866</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>42</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1442,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5684916719.82762</v>
+        <v>5766588770.675452</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1230940994262586</v>
+        <v>0.10848442510745</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03819481467757401</v>
+        <v>0.03234874574271689</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>192</v>
+      </c>
+      <c r="J29" t="n">
+        <v>203</v>
+      </c>
+      <c r="K29" t="n">
+        <v>133.8314609817201</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1479,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1679681495.107496</v>
+        <v>2243047248.707989</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09806217726867572</v>
+        <v>0.09956985103086678</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03427045594961637</v>
+        <v>0.02597984298959658</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1514,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1051194218.598157</v>
+        <v>1236541899.697927</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07032481486316454</v>
+        <v>0.07605205757782348</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05174418324410989</v>
+        <v>0.0400599218795413</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1555,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1642367909.764608</v>
+        <v>1161902359.253468</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1188235296615383</v>
+        <v>0.08851675355025193</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02573624733084226</v>
+        <v>0.03067407863931126</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1590,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2246837527.611497</v>
+        <v>2779301049.425038</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1547110418535876</v>
+        <v>0.1780763277918318</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05492263780070985</v>
+        <v>0.04731716786128357</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1619,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1536558704.864654</v>
+        <v>1259988756.533072</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08905966743014909</v>
+        <v>0.1212327403768028</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0171633177121285</v>
+        <v>0.02369543510707185</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1660,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>910874253.9871027</v>
+        <v>868084846.4483755</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09544014986302092</v>
+        <v>0.08743969357218231</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03625598288247966</v>
+        <v>0.04516985314118464</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1695,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3042703156.23372</v>
+        <v>2665145711.307875</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1720792763605802</v>
+        <v>0.1645093642141363</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02343851902180328</v>
+        <v>0.02870393715362534</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1724,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2760908733.998675</v>
+        <v>2598694136.291241</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07300591617713677</v>
+        <v>0.09565046891419911</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03757108283510654</v>
+        <v>0.03807207645736042</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1765,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2148217800.445173</v>
+        <v>1804133882.352093</v>
       </c>
       <c r="F38" t="n">
-        <v>0.103319662869659</v>
+        <v>0.1014048937720578</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0308827223818504</v>
+        <v>0.03562154435721585</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1794,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1904547967.639634</v>
+        <v>1562097454.792717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1906453612390986</v>
+        <v>0.1411439602430931</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02192944478245501</v>
+        <v>0.02392150060611211</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1829,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1432089554.8429</v>
+        <v>1813292051.159644</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1199599305711787</v>
+        <v>0.1292802654852203</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04341104284647582</v>
+        <v>0.05161066951859606</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1870,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1812669799.272486</v>
+        <v>2856301123.130343</v>
       </c>
       <c r="F41" t="n">
-        <v>0.100795990508186</v>
+        <v>0.1084987734884934</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04723190473496135</v>
+        <v>0.04330310868853581</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1899,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2628347730.596931</v>
+        <v>3482344941.421067</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1226703687683038</v>
+        <v>0.1130551992875019</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03571508149524365</v>
+        <v>0.0312905745922154</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>81</v>
+      </c>
+      <c r="J42" t="n">
+        <v>202</v>
+      </c>
+      <c r="K42" t="n">
+        <v>79.5463253935897</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1936,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2673205735.774521</v>
+        <v>2458183947.162853</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1631497239326338</v>
+        <v>0.1251610436658123</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0227664762864574</v>
+        <v>0.01892892309312582</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1971,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2106489962.030122</v>
+        <v>2025613210.403206</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07385909405674586</v>
+        <v>0.09102837153834417</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02240899830220673</v>
+        <v>0.03133175273303132</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2006,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1655542585.762641</v>
+        <v>1631274800.916835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.142114043477657</v>
+        <v>0.1424327296822723</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05498979110174261</v>
+        <v>0.05188894725053299</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2041,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5724635697.211808</v>
+        <v>5218826381.378095</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1320036393107794</v>
+        <v>0.1369975953529089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03938172459564529</v>
+        <v>0.06130735049907828</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>116</v>
+      </c>
+      <c r="J46" t="n">
+        <v>203</v>
+      </c>
+      <c r="K46" t="n">
+        <v>121.5275171329179</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2084,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3672022992.537368</v>
+        <v>4322509832.262456</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1309856339277333</v>
+        <v>0.200630302410931</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04907555639938995</v>
+        <v>0.05592463538469259</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>91</v>
+      </c>
+      <c r="J47" t="n">
+        <v>202</v>
+      </c>
+      <c r="K47" t="n">
+        <v>96.67531251751318</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2121,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3988312551.893535</v>
+        <v>3610056233.375591</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09960840978917712</v>
+        <v>0.09069881631342638</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02881427038103145</v>
+        <v>0.02635762334973157</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>98</v>
+      </c>
+      <c r="J48" t="n">
+        <v>203</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1783665298.487844</v>
+        <v>1834554254.493793</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1801639526755345</v>
+        <v>0.182926270234475</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04387296471682724</v>
+        <v>0.02913110315040813</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3952425853.891855</v>
+        <v>4091316910.687589</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1711694575692407</v>
+        <v>0.1711791114451974</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03343654415965817</v>
+        <v>0.04494587046532188</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>63</v>
+      </c>
+      <c r="J50" t="n">
+        <v>203</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1020103405.337836</v>
+        <v>1154743804.297725</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1405916628095754</v>
+        <v>0.1628538366515213</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0496218939276397</v>
+        <v>0.03492995787438812</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2261,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4922492487.050264</v>
+        <v>3253432731.63886</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08894138500408066</v>
+        <v>0.1287745553675503</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05398735008625714</v>
+        <v>0.05218125545839377</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>139</v>
+      </c>
+      <c r="J52" t="n">
+        <v>201</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2290,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2767955912.780743</v>
+        <v>2824452614.667011</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1859000738494083</v>
+        <v>0.1945567387146483</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03085858604618266</v>
+        <v>0.02205556572712705</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="n">
+        <v>201</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2331,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3027846779.901077</v>
+        <v>4893938780.920427</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1020328595896177</v>
+        <v>0.1091286139643677</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03645497452421324</v>
+        <v>0.04594971497248079</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>104</v>
+      </c>
+      <c r="J54" t="n">
+        <v>203</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2360,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4194396255.16818</v>
+        <v>4593185987.77657</v>
       </c>
       <c r="F55" t="n">
-        <v>0.140500777097207</v>
+        <v>0.1925187265224157</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03233326667352837</v>
+        <v>0.03103961243738992</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>91</v>
+      </c>
+      <c r="J55" t="n">
+        <v>202</v>
+      </c>
+      <c r="K55" t="n">
+        <v>115.9085977990569</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2397,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1825660178.97981</v>
+        <v>1256313428.817266</v>
       </c>
       <c r="F56" t="n">
-        <v>0.116306905848085</v>
+        <v>0.1296515450092424</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04446246574851817</v>
+        <v>0.05053636305183708</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2432,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3306563209.143237</v>
+        <v>3755475622.712852</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1393689367471637</v>
+        <v>0.118155713581564</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0208170996635533</v>
+        <v>0.01687654467824207</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>81</v>
+      </c>
+      <c r="J57" t="n">
+        <v>202</v>
+      </c>
+      <c r="K57" t="n">
+        <v>88.72724129063941</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1908254726.770168</v>
+        <v>1216147673.583135</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1501778995274547</v>
+        <v>0.1398372674818901</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03831920390104192</v>
+        <v>0.02926519506558804</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4014301038.606866</v>
+        <v>4411185340.650409</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08745758665681805</v>
+        <v>0.1000543294927332</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03819979753730262</v>
+        <v>0.03581401013311635</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>98</v>
+      </c>
+      <c r="J59" t="n">
+        <v>202</v>
+      </c>
+      <c r="K59" t="n">
+        <v>109.4063690857469</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2690416877.252541</v>
+        <v>3150712821.678121</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1570757963339657</v>
+        <v>0.1261704146720036</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02885324636173429</v>
+        <v>0.02168801968794615</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2850757565.397801</v>
+        <v>3035356632.538672</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1447234526737764</v>
+        <v>0.1735502694199462</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02163429804325505</v>
+        <v>0.02242067038927432</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2050333995.744853</v>
+        <v>1906852668.120381</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1575080791293801</v>
+        <v>0.1798506366392722</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03513509356600078</v>
+        <v>0.04221293528166131</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4162794486.575129</v>
+        <v>5024203962.984169</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09272036334399179</v>
+        <v>0.06624747534056265</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04022846232517636</v>
+        <v>0.0393623137431531</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>99</v>
+      </c>
+      <c r="J63" t="n">
+        <v>202</v>
+      </c>
+      <c r="K63" t="n">
+        <v>112.1565272318904</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3549379173.357343</v>
+        <v>3859263493.138957</v>
       </c>
       <c r="F64" t="n">
-        <v>0.123724487318031</v>
+        <v>0.1563090039287362</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03473991964646569</v>
+        <v>0.02525641711015535</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>100</v>
+      </c>
+      <c r="J64" t="n">
+        <v>202</v>
+      </c>
+      <c r="K64" t="n">
+        <v>90.43587211197404</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5656068311.202717</v>
+        <v>5269367689.442293</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1169400992590068</v>
+        <v>0.1523491462233269</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02093118465523148</v>
+        <v>0.027860386605434</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>163</v>
+      </c>
+      <c r="J65" t="n">
+        <v>203</v>
+      </c>
+      <c r="K65" t="n">
+        <v>121.8648531513056</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2763,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4742959952.604188</v>
+        <v>4568566758.853846</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1148284168946152</v>
+        <v>0.1105298574873551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03788040125592451</v>
+        <v>0.03382514377118333</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>100</v>
+      </c>
+      <c r="J66" t="n">
+        <v>202</v>
+      </c>
+      <c r="K66" t="n">
+        <v>109.2139114838167</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3406851067.783659</v>
+        <v>3333954018.116176</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06954373620833203</v>
+        <v>0.06315841995317341</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03163717347242543</v>
+        <v>0.04655260501622505</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5180454286.543652</v>
+        <v>6014074300.527095</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1012331690605596</v>
+        <v>0.1350734194788192</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03959750743585616</v>
+        <v>0.04837988403475402</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>102</v>
+      </c>
+      <c r="J68" t="n">
+        <v>203</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2247600986.402221</v>
+        <v>2167325229.071944</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1329571080224157</v>
+        <v>0.1155481938025819</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05052911011825127</v>
+        <v>0.04750382769189004</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2373340856.570659</v>
+        <v>3675491396.290996</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09147701305466541</v>
+        <v>0.0982008702492158</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03356489925850561</v>
+        <v>0.03948802729440289</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>30</v>
+      </c>
+      <c r="J70" t="n">
+        <v>203</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4882912864.591999</v>
+        <v>4967668402.993983</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1708956744065765</v>
+        <v>0.1599445180095594</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02057695013000461</v>
+        <v>0.02335915647350485</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>155</v>
+      </c>
+      <c r="J71" t="n">
+        <v>203</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1796582470.336445</v>
+        <v>2177406968.048194</v>
       </c>
       <c r="F72" t="n">
-        <v>0.104697544632283</v>
+        <v>0.09982731929251118</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04651671652557574</v>
+        <v>0.04461624809475567</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3010,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2541442028.497124</v>
+        <v>3202236530.407603</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08958943053209896</v>
+        <v>0.09134347957790581</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03487575399971266</v>
+        <v>0.0490900661525091</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2806204844.70986</v>
+        <v>3240957727.326628</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1375711272034208</v>
+        <v>0.1750526080919499</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02557130537093045</v>
+        <v>0.03106603673739642</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>59</v>
+      </c>
+      <c r="J74" t="n">
+        <v>202</v>
+      </c>
+      <c r="K74" t="n">
+        <v>69.36491702324857</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2116505006.310151</v>
+        <v>2105151280.050585</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1012814073949097</v>
+        <v>0.1039808902653747</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0285755296441452</v>
+        <v>0.02913211096952334</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3482361682.167107</v>
+        <v>4666287022.851885</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09646717470391858</v>
+        <v>0.1026859646034027</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0223919949638461</v>
+        <v>0.03082115027426493</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>93</v>
+      </c>
+      <c r="J76" t="n">
+        <v>202</v>
+      </c>
+      <c r="K76" t="n">
+        <v>101.8490452944741</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1814522741.6961</v>
+        <v>1731310400.852234</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1852178849032836</v>
+        <v>0.1741311435727287</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02460097060457201</v>
+        <v>0.02423442236200701</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4519925032.700549</v>
+        <v>4247891930.539737</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08771471604343402</v>
+        <v>0.1170119574947888</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04456964466635218</v>
+        <v>0.05237211091818293</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>101</v>
+      </c>
+      <c r="J78" t="n">
+        <v>203</v>
+      </c>
+      <c r="K78" t="n">
+        <v>118.1943721446505</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1660190692.133226</v>
+        <v>1860511182.980646</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1594548349303929</v>
+        <v>0.1071251460739877</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03866283050645315</v>
+        <v>0.03179937234048658</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4042635480.319016</v>
+        <v>3462126038.579701</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07647661439253595</v>
+        <v>0.08548332202152116</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02992676452489889</v>
+        <v>0.03772226886490294</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>99</v>
+      </c>
+      <c r="J80" t="n">
+        <v>201</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4410749825.675025</v>
+        <v>4497308612.935714</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08441437230974447</v>
+        <v>0.1065189555431336</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03209032528300423</v>
+        <v>0.02493219530959647</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>93</v>
+      </c>
+      <c r="J81" t="n">
+        <v>203</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3904890930.043089</v>
+        <v>5563367386.331869</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2039886606792172</v>
+        <v>0.2035272455566828</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02249327935961642</v>
+        <v>0.02177869371550724</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>150</v>
+      </c>
+      <c r="J82" t="n">
+        <v>203</v>
+      </c>
+      <c r="K82" t="n">
+        <v>125.9725883907091</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2321431038.927148</v>
+        <v>1514034355.391778</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1385776779599619</v>
+        <v>0.1374770569589455</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03606379786914868</v>
+        <v>0.02893084807739112</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2546412287.52495</v>
+        <v>2154580207.415458</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1007427558774271</v>
+        <v>0.07869738572208507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0521195089430841</v>
+        <v>0.03948467448584122</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2594234576.410157</v>
+        <v>3621073889.163424</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1418600550037312</v>
+        <v>0.1424182122505069</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05063527261684671</v>
+        <v>0.03628198291105379</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>28</v>
+      </c>
+      <c r="J85" t="n">
+        <v>203</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2289697675.195396</v>
+        <v>2785281896.620684</v>
       </c>
       <c r="F86" t="n">
-        <v>0.169446119709143</v>
+        <v>0.1713012086312985</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01894398060218989</v>
+        <v>0.02264828522773727</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1362809298.029506</v>
+        <v>1164488612.670879</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1682671755543251</v>
+        <v>0.1752323439275436</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03961037605562177</v>
+        <v>0.03513213074583968</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2749491708.033565</v>
+        <v>2590612286.588423</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1304207272400162</v>
+        <v>0.1588810454933828</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02609234619046099</v>
+        <v>0.02920564949210547</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3578,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2642547234.629118</v>
+        <v>3200262829.693011</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1019805581585896</v>
+        <v>0.139549188530497</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03769960513567387</v>
+        <v>0.04007250928306776</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1440852700.593287</v>
+        <v>1554070543.131434</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08367308192328929</v>
+        <v>0.1047619994834339</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0483077497049338</v>
+        <v>0.03892872308408362</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1310688887.932367</v>
+        <v>1591523053.980831</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1616956155755822</v>
+        <v>0.1380766291783355</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03873154344772323</v>
+        <v>0.05698156561722054</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2235734968.035503</v>
+        <v>2593914617.726614</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07300726292489799</v>
+        <v>0.09707479750510911</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03313505027480163</v>
+        <v>0.03352525168928328</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4180389373.842354</v>
+        <v>4589186349.743248</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1177707294525809</v>
+        <v>0.1239601023749036</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04555636835034554</v>
+        <v>0.05162670738380323</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>92</v>
+      </c>
+      <c r="J93" t="n">
+        <v>202</v>
+      </c>
+      <c r="K93" t="n">
+        <v>113.1789548419431</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1804933229.531543</v>
+        <v>1953682857.33345</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1238677137134975</v>
+        <v>0.1398429218880157</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03475896110525502</v>
+        <v>0.03122081823961764</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2539047901.026065</v>
+        <v>2535654906.54785</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1273420164504153</v>
+        <v>0.09355241388510085</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03791572711418518</v>
+        <v>0.05093919143971403</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2361400954.799315</v>
+        <v>2137667389.413304</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1323668105381717</v>
+        <v>0.115547206837778</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03403851765821153</v>
+        <v>0.0305382381090368</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3860,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4777802081.376452</v>
+        <v>3923690808.499208</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1430108173785866</v>
+        <v>0.1472134862293434</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02247558900258277</v>
+        <v>0.02413375783513046</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>98</v>
+      </c>
+      <c r="J97" t="n">
+        <v>202</v>
+      </c>
+      <c r="K97" t="n">
+        <v>97.34917896182381</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2751390401.182292</v>
+        <v>3178912998.392154</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09957253863906318</v>
+        <v>0.1043113550668524</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03210019612939619</v>
+        <v>0.02825538849835353</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>51</v>
+      </c>
+      <c r="J98" t="n">
+        <v>202</v>
+      </c>
+      <c r="K98" t="n">
+        <v>57.28309062068702</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2585686452.932686</v>
+        <v>2433786698.983834</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1125889831915523</v>
+        <v>0.122657521238409</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02985185376758291</v>
+        <v>0.03547139283174433</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3254311859.558701</v>
+        <v>4320847244.371149</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1139006386232047</v>
+        <v>0.1598786455984761</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02446103731486852</v>
+        <v>0.02361391716583621</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>84</v>
+      </c>
+      <c r="J100" t="n">
+        <v>202</v>
+      </c>
+      <c r="K100" t="n">
+        <v>114.9576065741461</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2527875211.541681</v>
+        <v>3483248692.352079</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2204903212401176</v>
+        <v>0.196719336975932</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04957226839091996</v>
+        <v>0.0378070273493098</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
